--- a/data/final_data/Experiment Agreement (Responses).xlsx
+++ b/data/final_data/Experiment Agreement (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>Timestamp</t>
   </si>
@@ -236,6 +236,27 @@
   </si>
   <si>
     <t>Naomi Lavori</t>
+  </si>
+  <si>
+    <t>meredith</t>
+  </si>
+  <si>
+    <t>Berna Yeltekin</t>
+  </si>
+  <si>
+    <t>Suleyman Yeltekin</t>
+  </si>
+  <si>
+    <t>Ali Oral</t>
+  </si>
+  <si>
+    <t>Paul Lee</t>
+  </si>
+  <si>
+    <t>Kelsey Platt</t>
+  </si>
+  <si>
+    <t>Caleb Upkins</t>
   </si>
 </sst>
 </file>
@@ -1297,6 +1318,83 @@
         <v>4</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>44650.85911738426</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>44656.589520856476</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>44656.58971817129</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>44656.59022633102</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>44656.591089884256</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>44657.38824048611</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>44657.489198888885</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
